--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387376.6652705414</v>
+        <v>-394387.3943865356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892728</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12086917.85425595</v>
+        <v>12086917.85425596</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>237.0432516867249</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -677,7 +677,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>250.7837168089316</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -798,13 +798,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>165.8258190774292</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>132.2535256502636</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.89876069721878</v>
       </c>
       <c r="S4" t="n">
-        <v>125.6476561767118</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>228.4375577510482</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>26.93091308589535</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1032,13 +1032,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>87.63261027225433</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>2.236264487172243</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.83056154863428</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>7.195297428223704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>291.851957685453</v>
+        <v>303.5462441964049</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>76.09855113612963</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -1300,19 +1300,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.1156672543256</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>209.4439979284595</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>92.03525155904245</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>54.89622713107816</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>41.42518702485093</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.4793772398888</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.7701071136279</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>26.32608977062838</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.7108619993286</v>
+        <v>321.4474895938728</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993863</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177836</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465747</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338892</v>
       </c>
       <c r="I16" t="n">
-        <v>2.893310984070244</v>
+        <v>60.68516871456085</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901676</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>57.03260996982122</v>
       </c>
     </row>
     <row r="17">
@@ -2141,7 +2141,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658103</v>
       </c>
       <c r="X20" t="n">
         <v>255.1981097006893</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007213</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507363</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815732</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.463826709389</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619112</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126123</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596575008</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973565021</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434678</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970377</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308071</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086857</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.778159243564</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158952</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167853</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196094</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380066</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667977</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644704</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883918</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541122</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658315</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701039068</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656639</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407385</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546743</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357234</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>930.4757375204661</v>
+        <v>1184.778588628532</v>
       </c>
       <c r="C2" t="n">
-        <v>930.4757375204661</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D2" t="n">
-        <v>930.4757375204661</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357995</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>114.5970879866905</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>114.5970879866905</v>
       </c>
       <c r="L2" t="n">
-        <v>681.4657240221119</v>
+        <v>607.9173797052193</v>
       </c>
       <c r="M2" t="n">
-        <v>1219.724509032204</v>
+        <v>1121.520058314909</v>
       </c>
       <c r="N2" t="n">
-        <v>1747.535792669667</v>
+        <v>1635.122736924598</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102448</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297165</v>
+        <v>1813.668821661865</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.965481631577</v>
+        <v>1813.668821661865</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.965481631577</v>
+        <v>1813.668821661865</v>
       </c>
       <c r="W2" t="n">
-        <v>1326.966446599865</v>
+        <v>1813.668821661865</v>
       </c>
       <c r="X2" t="n">
-        <v>1326.966446599865</v>
+        <v>1424.216216594921</v>
       </c>
       <c r="Y2" t="n">
-        <v>930.4757375204661</v>
+        <v>1424.216216594921</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>718.4298364179177</v>
+        <v>601.9175830570626</v>
       </c>
       <c r="C3" t="n">
-        <v>567.7756059780099</v>
+        <v>601.9175830570626</v>
       </c>
       <c r="D3" t="n">
-        <v>437.6866385994903</v>
+        <v>471.828615678543</v>
       </c>
       <c r="E3" t="n">
-        <v>301.240147710378</v>
+        <v>335.3821247894307</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725625</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>380.3342222643592</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>863.9003081626724</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1402.159093172765</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="N3" t="n">
-        <v>1940.417878182858</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1471.526139546295</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262036</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813768</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863477</v>
       </c>
       <c r="W3" t="n">
-        <v>1238.84746543336</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>1049.540387783372</v>
+        <v>887.3033373467752</v>
       </c>
       <c r="Y3" t="n">
-        <v>870.2261708588791</v>
+        <v>753.713917498024</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>211.7083646903493</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>873.3555615229225</v>
       </c>
       <c r="S4" t="n">
-        <v>818.0258575153864</v>
+        <v>670.5394777054719</v>
       </c>
       <c r="T4" t="n">
-        <v>818.0258575153864</v>
+        <v>434.820425873706</v>
       </c>
       <c r="U4" t="n">
-        <v>532.5870657572874</v>
+        <v>434.820425873706</v>
       </c>
       <c r="V4" t="n">
-        <v>266.6077205781116</v>
+        <v>434.820425873706</v>
       </c>
       <c r="W4" t="n">
-        <v>266.6077205781116</v>
+        <v>434.820425873706</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>434.820425873706</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>211.7083646903493</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1709.092367800868</v>
+        <v>294.2246404868911</v>
       </c>
       <c r="C5" t="n">
-        <v>1315.916866303798</v>
+        <v>294.2246404868911</v>
       </c>
       <c r="D5" t="n">
-        <v>930.4757375204661</v>
+        <v>63.47963265754947</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8922126370105</v>
+        <v>63.47963265754947</v>
       </c>
       <c r="F5" t="n">
-        <v>515.0381782073923</v>
+        <v>50.62559822793129</v>
       </c>
       <c r="G5" t="n">
-        <v>505.9158267357995</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>681.4657240221119</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>1219.724509032204</v>
+        <v>1193.075989993385</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.74336884542</v>
+        <v>1542.129285544456</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737748</v>
+        <v>1542.129285544456</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675978</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S5" t="n">
-        <v>2109.587113512265</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T5" t="n">
-        <v>2109.587113512265</v>
+        <v>1851.661735376343</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.587113512265</v>
+        <v>1851.661735376343</v>
       </c>
       <c r="V5" t="n">
-        <v>2109.587113512265</v>
+        <v>1851.661735376343</v>
       </c>
       <c r="W5" t="n">
-        <v>2109.587113512265</v>
+        <v>1480.66270034463</v>
       </c>
       <c r="X5" t="n">
-        <v>2109.587113512265</v>
+        <v>1091.210095277687</v>
       </c>
       <c r="Y5" t="n">
-        <v>2109.587113512265</v>
+        <v>694.719386198288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569814</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>846.8008913552947</v>
+        <v>642.3356118811502</v>
       </c>
       <c r="M6" t="n">
-        <v>1385.059676365387</v>
+        <v>1155.938290490839</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591877</v>
+        <v>1155.938290490839</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182858</v>
+        <v>1669.540969100529</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813768</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.86996398933505</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="C7" t="n">
-        <v>97.86996398933505</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>48.77122395656448</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633852</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>504.4151336486743</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="V7" t="n">
-        <v>555.0623473897086</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="W7" t="n">
-        <v>555.0623473897086</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="X7" t="n">
-        <v>320.9820251726917</v>
+        <v>218.9763418905753</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.86996398933505</v>
+        <v>218.9763418905753</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>875.9132849266141</v>
+        <v>1269.088786423684</v>
       </c>
       <c r="C8" t="n">
         <v>875.9132849266141</v>
@@ -4811,43 +4811,43 @@
         <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2032.855634104669</v>
+        <v>2059.036137202024</v>
       </c>
       <c r="W8" t="n">
-        <v>1661.856599072956</v>
+        <v>2059.036137202024</v>
       </c>
       <c r="X8" t="n">
-        <v>1272.403994006013</v>
+        <v>1669.583532135081</v>
       </c>
       <c r="Y8" t="n">
-        <v>875.9132849266141</v>
+        <v>1669.583532135081</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.5048953398264</v>
+        <v>871.8927692732682</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>701.6876513392574</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>546.0545382417722</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>390.4957261009747</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>766.8249752144843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>543.7129140311276</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1459.710229057665</v>
+        <v>1864.59661663633</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.710229057665</v>
+        <v>1543.217390285455</v>
       </c>
       <c r="D11" t="n">
-        <v>1146.065375420526</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>815.2781256832648</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2835.645851055487</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2835.645851055487</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2517.989521134738</v>
       </c>
       <c r="Y11" t="n">
-        <v>1788.408699622868</v>
+        <v>2193.295087201533</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.325628668934</v>
+        <v>431.1145568530014</v>
       </c>
       <c r="C13" t="n">
-        <v>431.9167858811171</v>
+        <v>332.7057140651846</v>
       </c>
       <c r="D13" t="n">
-        <v>348.0799479298257</v>
+        <v>332.7057140651846</v>
       </c>
       <c r="E13" t="n">
-        <v>292.6292134539891</v>
+        <v>248.943177070581</v>
       </c>
       <c r="F13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581893</v>
@@ -5206,10 +5206,10 @@
         <v>489.4106539027737</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>988.1475398457743</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915626</v>
+        <v>793.9644698127925</v>
       </c>
       <c r="W13" t="n">
-        <v>530.325628668934</v>
+        <v>582.4303428901641</v>
       </c>
       <c r="X13" t="n">
-        <v>530.325628668934</v>
+        <v>582.4303428901641</v>
       </c>
       <c r="Y13" t="n">
-        <v>530.325628668934</v>
+        <v>431.1145568530014</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1780.935942880364</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.556716529488</v>
+        <v>1393.015874768147</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>748.5837713937466</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>403.4856080699183</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5300,28 +5300,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2984.647095423698</v>
       </c>
       <c r="W14" t="n">
-        <v>2560.332018113113</v>
+        <v>2685.44433553818</v>
       </c>
       <c r="X14" t="n">
-        <v>2242.675688192363</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2109.634413445567</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5340,10 +5340,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E15" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F15" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G15" t="n">
         <v>199.803798091603</v>
@@ -5352,25 +5352,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L15" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234.3338606870981</v>
+        <v>655.0952099420608</v>
       </c>
       <c r="C16" t="n">
-        <v>234.3338606870981</v>
+        <v>556.686367154244</v>
       </c>
       <c r="D16" t="n">
-        <v>234.3338606870981</v>
+        <v>472.8495292029527</v>
       </c>
       <c r="E16" t="n">
-        <v>150.5713236924945</v>
+        <v>389.0869922083492</v>
       </c>
       <c r="F16" t="n">
-        <v>65.04166405166123</v>
+        <v>303.5573325675161</v>
       </c>
       <c r="G16" t="n">
-        <v>65.04166405166123</v>
+        <v>207.0995538131557</v>
       </c>
       <c r="H16" t="n">
-        <v>65.04166405166123</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J16" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118225</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628197</v>
+        <v>1086.522080874725</v>
       </c>
       <c r="W16" t="n">
-        <v>661.3454373401912</v>
+        <v>874.9879539520971</v>
       </c>
       <c r="X16" t="n">
-        <v>499.0613902693683</v>
+        <v>712.7039068812742</v>
       </c>
       <c r="Y16" t="n">
-        <v>347.7456042322056</v>
+        <v>655.0952099420608</v>
       </c>
     </row>
     <row r="17">
@@ -5498,61 +5498,61 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404046</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358933</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5577,10 +5577,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G18" t="n">
         <v>199.803798091603</v>
@@ -5589,13 +5589,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L18" t="n">
         <v>978.5393418843826</v>
@@ -5662,37 +5662,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5707,13 +5707,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y19" t="n">
         <v>289.463261197452</v>
@@ -5735,19 +5735,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5765,34 +5765,34 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064826</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188066</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573993</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5814,10 +5814,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,28 +5826,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2208.713496756216</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5899,19 +5899,19 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J22" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L22" t="n">
         <v>442.7178209184691</v>
@@ -5944,13 +5944,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y22" t="n">
         <v>289.463261197452</v>
@@ -5981,10 +5981,10 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6051,10 +6051,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E24" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F24" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G24" t="n">
         <v>199.803798091603</v>
@@ -6063,28 +6063,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6136,37 +6136,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>273.0105384364859</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>437.1381783102858</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6181,13 +6181,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y25" t="n">
         <v>289.463261197452</v>
@@ -6209,19 +6209,19 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,31 +6233,31 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1981.256287116106</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.118932483142</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.15853337547</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506992</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
         <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6266,10 +6266,10 @@
         <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985353</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
         <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878068</v>
@@ -6373,37 +6373,37 @@
         <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746021</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232844</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
@@ -6440,52 +6440,52 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938484</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605751</v>
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4798411672776</v>
+        <v>218.9633184712348</v>
       </c>
       <c r="L30" t="n">
-        <v>186.4798411672776</v>
+        <v>702.529404369548</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1330.301053996229</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
         <v>307.7550988878065</v>
@@ -6613,28 +6613,28 @@
         <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796859</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918592</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993091</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108118</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803399</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835536</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230596</v>
+        <v>682.8393851136177</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741588</v>
+        <v>1176.159676832146</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786169</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423631</v>
+        <v>2293.032006377477</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.03502904303</v>
+        <v>2844.723727844788</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3192.91121997631</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.34117404257</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117259</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131756</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946338</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076161</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>664.2362037203858</v>
       </c>
       <c r="M33" t="n">
-        <v>981.219737859967</v>
+        <v>1292.007853347067</v>
       </c>
       <c r="N33" t="n">
-        <v>1636.997709070526</v>
+        <v>1869.370387987</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929734</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404876</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245274</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652549</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597528</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.7304500837423</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234517</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074065</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076211</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729554</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041647</v>
+        <v>906.3032701055254</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872943</v>
+        <v>1180.660157722216</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376592</v>
+        <v>1376.562239503609</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387762</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501596</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250215</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273707</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400732</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045813</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027497</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,19 +7020,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,22 +7336,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7442,16 +7442,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7491,22 +7491,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7570,25 +7570,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7679,16 +7679,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102858</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161894</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>191.5120008012875</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,13 +7985,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920156</v>
       </c>
       <c r="O2" t="n">
-        <v>581.126642543371</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>150.3014472409252</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>315.5803501311888</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035434</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>460.0844827140022</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519588</v>
       </c>
       <c r="N5" t="n">
-        <v>669.3395618561835</v>
+        <v>501.6975777530075</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>259.7353335668756</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035434</v>
       </c>
       <c r="N6" t="n">
-        <v>124.6023342950651</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431205</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>517.7322169380984</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>223.8267004481029</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>553.266865265316</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.21138542945</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>377.3304183063261</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9164,7 +9164,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110161</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
@@ -9489,16 +9489,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>412.7428484698906</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>264.4640783312027</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,28 +9714,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,25 +9954,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>486.9652344155849</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,25 +10191,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>122.4085285696537</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>489.2920096079786</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>201.8486954419035</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>668.566592288443</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,22 +10668,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>163.9964000092958</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,25 +10902,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,25 +11139,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>489.2920096079789</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23258,16 +23258,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>101.0644071723074</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>249.6119301315476</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362784</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>28.02868449357941</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.24917601957384</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>241.2813390381563</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>189.7366275945443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.7918577304907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.506091445786</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>92.77001820696979</v>
       </c>
     </row>
     <row r="17">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>940218.2382039628</v>
+        <v>940218.2382039629</v>
       </c>
     </row>
     <row r="6">
@@ -26314,16 +26314,16 @@
         <v>198365.3959026925</v>
       </c>
       <c r="C2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="D2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="E2" t="n">
-        <v>175294.9257668407</v>
+        <v>175294.9257668408</v>
       </c>
       <c r="F2" t="n">
-        <v>175294.9257668407</v>
+        <v>175294.9257668408</v>
       </c>
       <c r="G2" t="n">
         <v>198365.3959026924</v>
@@ -26332,22 +26332,22 @@
         <v>198365.3959026924</v>
       </c>
       <c r="I2" t="n">
+        <v>198365.3959026924</v>
+      </c>
+      <c r="J2" t="n">
         <v>198365.3959026925</v>
-      </c>
-      <c r="J2" t="n">
-        <v>198365.3959026924</v>
       </c>
       <c r="K2" t="n">
         <v>198365.3959026924</v>
       </c>
       <c r="L2" t="n">
-        <v>198365.3959026927</v>
+        <v>198365.3959026926</v>
       </c>
       <c r="M2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026924</v>
       </c>
       <c r="N2" t="n">
-        <v>198365.3959026925</v>
+        <v>198365.3959026923</v>
       </c>
       <c r="O2" t="n">
         <v>198365.3959026925</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401319</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399298</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.2417753965</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.829459623</v>
+        <v>43252.52447081106</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005333</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243104</v>
+        <v>173918.2775005333</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373754</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.4955237375</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
@@ -26439,25 +26439,25 @@
         <v>121843.4120153197</v>
       </c>
       <c r="J4" t="n">
-        <v>122593.9044797029</v>
+        <v>122593.9044797028</v>
       </c>
       <c r="K4" t="n">
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.0196998405</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.0196998405</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173849</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217729.9567534876</v>
+        <v>-214581.6061667135</v>
       </c>
       <c r="C6" t="n">
-        <v>-35525.00846163175</v>
+        <v>-40722.9491326582</v>
       </c>
       <c r="D6" t="n">
-        <v>-40388.29075550695</v>
+        <v>-48124.57997889825</v>
       </c>
       <c r="E6" t="n">
-        <v>-64098.15093078185</v>
+        <v>-64307.88247747129</v>
       </c>
       <c r="F6" t="n">
-        <v>48024.4105432627</v>
+        <v>47814.67899657325</v>
       </c>
       <c r="G6" t="n">
-        <v>-29073.1109648289</v>
+        <v>-29073.1109648288</v>
       </c>
       <c r="H6" t="n">
-        <v>18352.21457185304</v>
+        <v>18352.21457185309</v>
       </c>
       <c r="I6" t="n">
-        <v>18352.21457185314</v>
+        <v>18352.21457185312</v>
       </c>
       <c r="J6" t="n">
-        <v>-194689.7030254325</v>
+        <v>-188173.4178708596</v>
       </c>
       <c r="K6" t="n">
-        <v>12112.44616907011</v>
+        <v>12112.44616907009</v>
       </c>
       <c r="L6" t="n">
-        <v>-43070.14276555076</v>
+        <v>-47118.97997602288</v>
       </c>
       <c r="M6" t="n">
-        <v>-23848.61488776986</v>
+        <v>-24900.30989895797</v>
       </c>
       <c r="N6" t="n">
-        <v>18352.21457185315</v>
+        <v>18352.21457185301</v>
       </c>
       <c r="O6" t="n">
-        <v>-9415.479470918042</v>
+        <v>-9415.479470918115</v>
       </c>
       <c r="P6" t="n">
-        <v>18352.21457185302</v>
+        <v>18352.2145718531</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095202</v>
+        <v>844.4391950293146</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924562</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551342</v>
+        <v>17.58004954287468</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321487</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971661</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407288</v>
+        <v>117.1268713042781</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506355</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321487</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>159.446546567558</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.411485460815754</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>61.99025433061681</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>45.2675491049842</v>
       </c>
     </row>
     <row r="4">
@@ -27537,7 +27537,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>53.76321877653002</v>
       </c>
       <c r="S4" t="n">
-        <v>75.14026680256434</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>153.1491597444507</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>137.9175064224646</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>132.6819913403893</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>185.1777423863162</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.2462204178761</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>22.87919004393537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>46.83378351806374</v>
+        <v>35.13949700711191</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>107.2573873682586</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,19 +28020,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>51.62385174052108</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733193</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473204</v>
       </c>
     </row>
     <row r="17">
@@ -28746,28 +28746,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>128.2979821082775</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.636002634528595</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,10 +28983,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>35.71049010668771</v>
       </c>
       <c r="L22" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,43 +29272,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>86.65052755599675</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29317,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431647</v>
+        <v>86.65052755599487</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901221</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431647</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>86.27291196566472</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683160386</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>18.71446861254017</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>76.7938545503176</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727097</v>
       </c>
     </row>
     <row r="35">
@@ -30168,28 +30168,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>128.2979821082774</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30408,25 +30408,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30642,11 +30642,11 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L43" t="n">
-        <v>5.63600263452912</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30882,25 +30882,25 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>128.2979821082779</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5.636002634528086</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -32242,7 +32242,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>73.8321628589414</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,13 +34705,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="O2" t="n">
-        <v>431.5628051192745</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>225.9834147978554</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>373.0011178946875</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N5" t="n">
-        <v>520.2210705183994</v>
+        <v>352.5790864152234</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>169.6749867099574</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="N6" t="n">
-        <v>39.23022144089846</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542315</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>368.0071653403712</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>74.26286302400655</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>467.8947524111493</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110579</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7334829729927</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257297</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317787</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302975</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457854</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>320.0552895810017</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>173.4759251752887</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,10 +36279,10 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934977</v>
       </c>
       <c r="L22" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,10 +36525,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,7 +36601,7 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>638.1665882070882</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36613,7 +36613,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670549</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>396.9048875586666</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>449.2589679877745</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
@@ -36841,10 +36841,10 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.7566830047985</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698319</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>32.81159323632036</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>396.9048875586666</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>448.8813523974443</v>
+        <v>475.3883602044893</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.637807576515</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>557.264365118496</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273768</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>109.4615733925916</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>583.1944794342763</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>184.4999634345602</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528629</v>
+        <v>300.9532312255017</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>297.8199541476685</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>197.8808906882758</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37388,22 +37388,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>73.93605315237758</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610694</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302974</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>171.4214974565491</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>396.904887558667</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38178,7 +38178,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376044</v>
+        <v>294.0834769302979</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.092766644680569</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
